--- a/data/trans_orig/IMC-Clase-trans_orig.xlsx
+++ b/data/trans_orig/IMC-Clase-trans_orig.xlsx
@@ -539,7 +539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>IMC Adultos (tasa de respuesta: 96,87%)</t>
+          <t>Índice de Masa Corporal (IMC) medio de la población (tasa de respuesta: 96,87%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/IMC-Clase-trans_orig.xlsx
+++ b/data/trans_orig/IMC-Clase-trans_orig.xlsx
@@ -669,13 +669,13 @@
         <v>26.65666410520742</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26.23872560259509</v>
+        <v>26.23872560259507</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>23.69163225154119</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>23.9113368125971</v>
+        <v>23.91133681259709</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>24.73601138942418</v>
@@ -684,7 +684,7 @@
         <v>24.6014717041587</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>25.21213302061618</v>
+        <v>25.21213302061619</v>
       </c>
       <c r="L4" s="5" t="n">
         <v>25.47883529102497</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>25.91113319929123</v>
+        <v>25.86978694272999</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>26.2405834451013</v>
+        <v>26.25974128603743</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>26.26566008161369</v>
+        <v>26.2581469863001</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>25.89161784296669</v>
+        <v>25.92141052542781</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>23.27767377792389</v>
+        <v>23.26786116471989</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>23.46847938133787</v>
+        <v>23.44559640682807</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>24.21004521124611</v>
+        <v>24.23721656752013</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>24.28052743533433</v>
+        <v>24.29039077743862</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>24.94270842082633</v>
+        <v>24.94995788330983</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>25.15368827004572</v>
+        <v>25.18634480763205</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>25.49288012988065</v>
+        <v>25.50914146911535</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>25.21993380930063</v>
+        <v>25.23161457739323</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>26.53945138527458</v>
+        <v>26.51044112025285</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>26.99441486391304</v>
+        <v>26.98360084622791</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>27.11398481406904</v>
+        <v>27.13596519061698</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>26.61603756659761</v>
+        <v>26.63714930458287</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>24.18747164677075</v>
+        <v>24.18244041939355</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>24.40518663676086</v>
+        <v>24.40461971342338</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>25.29043822558782</v>
+        <v>25.24975500792777</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>25.01072762504214</v>
+        <v>24.96348440764201</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>25.48273500293846</v>
+        <v>25.48589413857883</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>25.79521516062326</v>
+        <v>25.79314391031525</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>26.15298194962246</v>
+        <v>26.13970082231742</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>25.7424321191143</v>
+        <v>25.7372058349509</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>25.63151819282035</v>
+        <v>25.65868006391243</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>26.36325914303581</v>
+        <v>26.35534252804275</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>25.83333587265991</v>
+        <v>25.84152830848864</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>26.31715040629762</v>
+        <v>26.34589286524206</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>23.62123553194058</v>
+        <v>23.61150357140734</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>24.36402392140095</v>
+        <v>24.32013729218569</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>24.35742990448084</v>
+        <v>24.36844495959788</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>24.91805401026145</v>
+        <v>24.88435348093291</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>24.72643265025311</v>
+        <v>24.72229468362053</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>25.56064442118243</v>
+        <v>25.57516755695473</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>25.22685960023267</v>
+        <v>25.1953191035547</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>25.75461241152416</v>
+        <v>25.75272939651322</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>26.29784618372947</v>
+        <v>26.29478033863732</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>27.07966010463256</v>
+        <v>27.10241534431808</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>26.62422276235509</v>
+        <v>26.63266875689211</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>27.05612744715565</v>
+        <v>27.11794356130034</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>24.47702408171683</v>
+        <v>24.43778722728753</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>25.31580860458419</v>
+        <v>25.32956860203515</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>25.31162917336331</v>
+        <v>25.30686722662989</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>25.61417511966986</v>
+        <v>25.62422441791856</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>25.27317239595482</v>
+        <v>25.27459856398584</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>26.2063695965674</v>
+        <v>26.20415781447066</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>25.83521330787364</v>
+        <v>25.83056585893778</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>26.28633812523721</v>
+        <v>26.27984497061422</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>26.82876012706445</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27.17452761243268</v>
+        <v>27.17452761243269</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>25.57623751005352</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>26.27312805560409</v>
+        <v>26.27444420499815</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>26.98094245218017</v>
+        <v>26.95849905398383</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>26.45242239106796</v>
+        <v>26.45701732113288</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>26.79897440837622</v>
+        <v>26.79638410585713</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>24.85264754144829</v>
+        <v>24.78729178658449</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>26.32674954021484</v>
+        <v>26.3866292215919</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>25.4320540274344</v>
+        <v>25.40530204323368</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>24.84732816503153</v>
+        <v>24.93304387147564</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>26.0553559366056</v>
+        <v>26.06955482843022</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>26.94237177828739</v>
+        <v>26.89403784137896</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>26.36945199219626</v>
+        <v>26.33078422954225</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>26.37387964264516</v>
+        <v>26.38133730798154</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>26.93362525588124</v>
+        <v>26.94959173698409</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>27.62827901714011</v>
+        <v>27.6254773336644</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>27.23887874650038</v>
+        <v>27.23520929064145</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>27.56721126873811</v>
+        <v>27.56780977882459</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>26.44247729610777</v>
+        <v>26.42191592959271</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>27.75957101326545</v>
+        <v>27.71643108220841</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>26.87505037125421</v>
+        <v>26.92123284563581</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>26.06896326725219</v>
+        <v>26.05925091579885</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>26.7358087206719</v>
+        <v>26.69342060069845</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>27.55663216509289</v>
+        <v>27.52773516526509</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>27.05619748597837</v>
+        <v>27.03184824355545</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>27.03837238547386</v>
+        <v>27.02032257360865</v>
       </c>
     </row>
     <row r="13">
@@ -1080,7 +1080,7 @@
         <v>27.15179137500074</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>25.12280583521618</v>
+        <v>25.12280583521619</v>
       </c>
       <c r="H13" s="5" t="n">
         <v>25.84383494081874</v>
@@ -1092,7 +1092,7 @@
         <v>25.81073150595427</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>25.9392880561045</v>
+        <v>25.93928805610449</v>
       </c>
       <c r="L13" s="5" t="n">
         <v>26.53761066750172</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>26.20964911235814</v>
+        <v>26.21811751783579</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>26.76443279142345</v>
+        <v>26.76314266313743</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>26.70120880701547</v>
+        <v>26.67952130105778</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>26.8927241779978</v>
+        <v>26.86647452509243</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>24.75980575292495</v>
+        <v>24.79709156758051</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>25.47153884117806</v>
+        <v>25.50124975077425</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>25.02673710653696</v>
+        <v>25.03116671954042</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>25.52409503065219</v>
+        <v>25.5058165019087</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>25.75958836919353</v>
+        <v>25.7729245401733</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>26.34432931438963</v>
+        <v>26.34377998602296</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>26.09430389332584</v>
+        <v>26.08946683561103</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>26.38625316303333</v>
+        <v>26.36785524553341</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>26.60094824038907</v>
+        <v>26.61833625265011</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>27.26263984669424</v>
+        <v>27.22991486218779</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>27.17600561738722</v>
+        <v>27.17478618823153</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>27.45604237884079</v>
+        <v>27.42835544152704</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>25.48045730016574</v>
+        <v>25.5145307735436</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>26.21324417617576</v>
+        <v>26.22883234567593</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>25.76616294168349</v>
+        <v>25.73339414129387</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>26.10096586609458</v>
+        <v>26.09760278142165</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>26.10659543248889</v>
+        <v>26.11438257854509</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>26.7656632636742</v>
+        <v>26.73843422606184</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>26.51842277267365</v>
+        <v>26.54047449181761</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>26.79491761202574</v>
+        <v>26.78074963159442</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>26.7423131271496</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>26.69156430995682</v>
+        <v>26.69156430995681</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>26.3081531916826</v>
@@ -1222,7 +1222,7 @@
         <v>27.43353492485206</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>27.01110503509473</v>
+        <v>27.01110503509474</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>27.17753313357099</v>
@@ -1231,10 +1231,10 @@
         <v>26.06804621657192</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>27.09923038694566</v>
+        <v>27.09923038694567</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>26.88717339254071</v>
+        <v>26.8871733925407</v>
       </c>
       <c r="N16" s="5" t="n">
         <v>26.9781820702595</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>25.23454811340716</v>
+        <v>25.24310519574517</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>26.25583262834155</v>
+        <v>26.27664381029774</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>26.37780916344497</v>
+        <v>26.39063229917172</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>26.28753963922619</v>
+        <v>26.25551267842412</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>25.89539794313253</v>
+        <v>25.9167993240602</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>27.01016858423315</v>
+        <v>27.02855445551097</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>26.61321413695261</v>
+        <v>26.65456430265852</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>26.88366665392967</v>
+        <v>26.89914810448123</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>25.77049419654266</v>
+        <v>25.73570819559513</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>26.80382619051197</v>
+        <v>26.81759421573417</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>26.6169435762383</v>
+        <v>26.60778914192975</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>26.73130679484492</v>
+        <v>26.73039296935798</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>26.15113626596225</v>
+        <v>26.15209716607454</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>26.96422510148277</v>
+        <v>26.98965578421621</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>27.1445405484732</v>
+        <v>27.13384111901481</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>27.08508669783552</v>
+        <v>27.13327123735195</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>26.7834272567554</v>
+        <v>26.8231367085554</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>27.83742495141468</v>
+        <v>27.85293836465024</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>27.42515066879031</v>
+        <v>27.44393171868104</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>27.46257413730051</v>
+        <v>27.4908546048384</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>26.41158418790165</v>
+        <v>26.39972874555682</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>27.39297301299509</v>
+        <v>27.3743995732184</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>27.17085976286414</v>
+        <v>27.16771695617916</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>27.25028362145126</v>
+        <v>27.22924095644706</v>
       </c>
     </row>
     <row r="19">
@@ -1346,13 +1346,13 @@
         <v>23.81211925740851</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>23.45559915331394</v>
+        <v>23.45559915331395</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>23.97754461666794</v>
+        <v>23.97754461666793</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>25.89188803100933</v>
+        <v>25.89188803100932</v>
       </c>
       <c r="H19" s="5" t="n">
         <v>26.72683340168938</v>
@@ -1367,7 +1367,7 @@
         <v>25.42464538676811</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>26.13896733568849</v>
+        <v>26.1389673356885</v>
       </c>
       <c r="M19" s="5" t="n">
         <v>25.88456691739358</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>23.17817543586881</v>
+        <v>23.1606728147474</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>23.40296509636982</v>
+        <v>23.38924992639205</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>23.01522431917685</v>
+        <v>23.02617812301015</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>23.21872648179611</v>
+        <v>23.25373515116815</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>25.63288727686362</v>
+        <v>25.61309887968532</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>26.39251743600062</v>
+        <v>26.38186760505142</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>26.20734043760256</v>
+        <v>26.18784456913082</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>25.6338708554103</v>
+        <v>25.7133809190967</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>25.1838248395493</v>
+        <v>25.14879765524827</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>25.84147470467814</v>
+        <v>25.86728993665476</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>25.60123732639579</v>
+        <v>25.58560618479048</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>25.23553882413636</v>
+        <v>25.27075218242767</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>23.83537692864418</v>
+        <v>23.85145231812882</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>24.25029072782792</v>
+        <v>24.25506656871415</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>23.88235158256128</v>
+        <v>23.95748244402635</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>24.93350984637226</v>
+        <v>24.94276535350693</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>26.18293986865042</v>
+        <v>26.1645057531134</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>27.05407361504238</v>
+        <v>27.04371897813358</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>26.887575637324</v>
+        <v>26.88644711326704</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>26.40149959218079</v>
+        <v>26.41431186990275</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>25.67274516277425</v>
+        <v>25.66803282431437</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>26.42000579813925</v>
+        <v>26.4244517367993</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>26.18668660230619</v>
+        <v>26.20098286586269</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>25.88849655773313</v>
+        <v>25.90298258279913</v>
       </c>
     </row>
     <row r="22">
@@ -1497,7 +1497,7 @@
         <v>25.9825042250334</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>25.92566796310429</v>
+        <v>25.9256679631043</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>25.692197137464</v>
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>25.89247995366398</v>
+        <v>25.87900937537777</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>26.51317853243946</v>
+        <v>26.53203507681741</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>26.32843365640964</v>
+        <v>26.32348552252536</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>26.48115356532942</v>
+        <v>26.48554438576641</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>25.20462139991734</v>
+        <v>25.2148683645238</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>26.06843725599773</v>
+        <v>26.08644301466532</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>25.80364935946926</v>
+        <v>25.78906541394631</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>25.794538020252</v>
+        <v>25.77967521786867</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>25.59203093642506</v>
+        <v>25.59004885129291</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>26.34193686672408</v>
+        <v>26.34442768213516</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>26.10709182903171</v>
+        <v>26.10284136493168</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>26.1721350337236</v>
+        <v>26.17061327194847</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>26.14492919053824</v>
+        <v>26.14637506859895</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>26.79653162736907</v>
+        <v>26.82300130542823</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>26.63311485142624</v>
+        <v>26.63848893074005</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>26.82347601509935</v>
+        <v>26.81785683156547</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>25.54040048423431</v>
+        <v>25.55419264831201</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>26.44235473249778</v>
+        <v>26.43763046180475</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>26.17081288901126</v>
+        <v>26.14491691047161</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>26.08536692348111</v>
+        <v>26.07401234630559</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>25.79167494913209</v>
+        <v>25.79213672234139</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>26.5687515811316</v>
+        <v>26.57584000315757</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>26.34364006669729</v>
+        <v>26.34632387939137</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>26.37876336307337</v>
+        <v>26.38591132305017</v>
       </c>
     </row>
     <row r="25">
